--- a/xlsx/立法_intext.xlsx
+++ b/xlsx/立法_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="567">
   <si>
     <t>立法</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政治學基本主題列表</t>
+    <t>政治学基本主题列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
   </si>
   <si>
-    <t>封建制度 (歐洲)</t>
+    <t>封建制度 (欧洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>委員會制</t>
+    <t>委员会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E6%94%BF%E6%B2%BB</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>國際關係理論</t>
+    <t>国际关系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%9C%BA%E6%9E%84</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>司法機構</t>
+    <t>司法机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%89%E4%B8%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biology_and_political_orientation</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E8%AD%B0%E6%80%A7%E5%9C%98%E9%AB%94</t>
   </si>
   <si>
-    <t>合議性團體</t>
+    <t>合议性团体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91</t>
@@ -365,31 +365,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%BD%E6%94%BF%E5%A0%B1%E5%91%8A</t>
   </si>
   <si>
-    <t>施政報告</t>
+    <t>施政报告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%AA%E8%A9%A2</t>
   </si>
   <si>
-    <t>質詢</t>
+    <t>质询</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%BD%E8%AD%89%E6%9C%83</t>
   </si>
   <si>
-    <t>聽證會</t>
+    <t>听证会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A3%E6%88%B0</t>
   </si>
   <si>
-    <t>宣戰</t>
+    <t>宣战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AA%BE%E5%92%8C</t>
@@ -413,13 +413,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%B7%E9%BB%9C</t>
   </si>
   <si>
-    <t>罷黜</t>
+    <t>罢黜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E5%93%A1</t>
   </si>
   <si>
-    <t>官員</t>
+    <t>官员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%85%83%E9%A6%96</t>
@@ -437,43 +437,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際組織</t>
+    <t>国际组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>議會</t>
+    <t>议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>議院</t>
+    <t>议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>議會制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%83%A8%E9%96%80</t>
   </si>
   <si>
-    <t>行政部門</t>
+    <t>行政部门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
   </si>
   <si>
-    <t>總統制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%B2%A1%E6%94%BF</t>
   </si>
   <si>
-    <t>公共財政</t>
+    <t>公共财政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87</t>
@@ -497,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%99%A2%E5%88%B6</t>
   </si>
   <si>
-    <t>兩院制</t>
+    <t>两院制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E7%A4%BE%E4%BC%9A</t>
@@ -551,13 +545,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>行政權</t>
+    <t>行政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -569,13 +563,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>國會</t>
+    <t>国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A8%E9%87%8E%E9%BB%A8</t>
   </si>
   <si>
-    <t>在野黨</t>
+    <t>在野党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E7%9B%B8</t>
@@ -587,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%96%A3</t>
   </si>
   <si>
-    <t>內閣</t>
+    <t>内阁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0</t>
@@ -641,37 +635,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>英國國會</t>
+    <t>英国国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>上議院</t>
+    <t>上议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>下議院</t>
+    <t>下议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>參議院</t>
+    <t>参议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>眾議院</t>
+    <t>众议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%95%B8%E4%BA%BA%E6%9A%B4%E6%94%BF</t>
   </si>
   <si>
-    <t>多數人暴政</t>
+    <t>多数人暴政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -683,13 +677,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%89%E4%BA%BA</t>
   </si>
   <si>
-    <t>證人</t>
+    <t>证人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E9%95%B7</t>
   </si>
   <si>
-    <t>議長</t>
+    <t>议长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E5%B8%AD</t>
@@ -731,25 +725,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>執政黨</t>
+    <t>执政党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐洲聯盟</t>
+    <t>欧洲联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95</t>
   </si>
   <si>
-    <t>國際法</t>
+    <t>国际法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%85%AC%E7%BA%A6</t>
@@ -761,9 +755,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%AC%8A%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>三權分立</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF</t>
   </si>
   <si>
@@ -773,19 +764,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>立法機構</t>
+    <t>立法机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%AC%8A%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>五權憲法</t>
+    <t>五权宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E8%A7%A3%E9%87%8B</t>
   </si>
   <si>
-    <t>法律解釋</t>
+    <t>法律解释</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%B3%95</t>
@@ -797,19 +788,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>憲法</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E5%88%B6%E6%80%A7%E6%B3%95%E5%BE%8B</t>
   </si>
   <si>
-    <t>憲制性法律</t>
+    <t>宪制性法律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%91%E7%B4%84</t>
   </si>
   <si>
-    <t>契約</t>
+    <t>契约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%91%E6%B3%95</t>
@@ -827,7 +815,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%89%E6%93%9A</t>
   </si>
   <si>
-    <t>證據</t>
+    <t>证据</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%BA%E6%9D%83%E6%B3%95</t>
@@ -845,25 +833,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%BA%8B%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
   </si>
   <si>
-    <t>民事訴訟法</t>
+    <t>民事诉讼法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%91%E4%BA%8B%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
   </si>
   <si>
-    <t>刑事訴訟法</t>
+    <t>刑事诉讼法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
   </si>
   <si>
-    <t>行政訴訟法</t>
+    <t>行政诉讼法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E6%AC%8A</t>
   </si>
   <si>
-    <t>物權</t>
+    <t>物权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B3%95</t>
@@ -911,7 +899,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E7%94%A2</t>
   </si>
   <si>
-    <t>破產</t>
+    <t>破产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%B3%95</t>
@@ -923,13 +911,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E7%88%AD%E6%B3%95</t>
   </si>
   <si>
-    <t>競爭法</t>
+    <t>竞争法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A7%81%E6%B3%95</t>
   </si>
   <si>
-    <t>國際私法</t>
+    <t>国际私法</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Construction_law</t>
@@ -1001,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E7%94%A2%E6%AC%8A</t>
   </si>
   <si>
-    <t>知識產權</t>
+    <t>知识产权</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/International_criminal_law</t>
@@ -1013,13 +1001,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E4%BA%BA%E6%AC%8A%E6%B3%95</t>
   </si>
   <si>
-    <t>國際人權法</t>
+    <t>国际人权法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%B7%A5%E6%B3%95</t>
   </si>
   <si>
-    <t>勞工法</t>
+    <t>劳工法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89%E6%B3%95</t>
@@ -1055,19 +1043,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B9%BC%E6%89%BF%E6%B3%95</t>
   </si>
   <si>
-    <t>繼承法</t>
+    <t>继承法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%94%A2</t>
   </si>
   <si>
-    <t>財產</t>
+    <t>财产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%9B%91</t>
   </si>
   <si>
-    <t>遺囑</t>
+    <t>遗嘱</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Product_liability</t>
@@ -1127,19 +1115,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E6%AC%8A%E7%A5%9E%E6%8E%88%E8%AA%AA</t>
   </si>
   <si>
-    <t>君權神授說</t>
+    <t>君权神授说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>人權</t>
+    <t>人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>自然權利</t>
+    <t>自然权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E4%BE%8B%E6%B3%95</t>
@@ -1151,7 +1139,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E6%B1%BA%E5%85%88%E4%BE%8B</t>
   </si>
   <si>
-    <t>判決先例</t>
+    <t>判决先例</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B5%E5%BE%AA%E5%85%88%E4%BE%8B</t>
@@ -1181,7 +1169,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%94%E4%BB%A4%E6%96%87%E6%9B%B8</t>
   </si>
   <si>
-    <t>詔令文書</t>
+    <t>诏令文书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%91%BD%E4%BB%A4</t>
@@ -1205,9 +1193,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>行政法規</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Rulemaking</t>
   </si>
   <si>
@@ -1229,27 +1214,24 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>法規</t>
+    <t>法规</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%AF%E9%82%A6%E8%AD%B0%E6%9C%83%E7%AB%8B%E6%B3%95</t>
   </si>
   <si>
-    <t>英聯邦議會立法</t>
+    <t>英联邦议会立法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>美國國會法案</t>
+    <t>美国国会法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>條約</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%B3%BB</t>
   </si>
   <si>
@@ -1259,7 +1241,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%B8%E6%B3%95%E7%B3%BB</t>
   </si>
   <si>
-    <t>大陸法系</t>
+    <t>大陆法系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%BE%8E%E6%B3%95%E7%B3%BB</t>
@@ -1271,7 +1253,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B3%95%E7%B3%BB</t>
   </si>
   <si>
-    <t>中華法系</t>
+    <t>中华法系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%A4%9A%E5%85%83%E8%AE%BA</t>
@@ -1319,13 +1301,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E9%87%8C%E4%BA%9E%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>沙里亞法規</t>
+    <t>沙里亚法规</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%B3%95</t>
   </si>
   <si>
-    <t>羅馬法</t>
+    <t>罗马法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E6%B3%95%E7%B3%BB</t>
@@ -1349,13 +1331,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>法學</t>
+    <t>法学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>法律原則</t>
+    <t>法律原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E6%B3%95%E5%BE%8B%E7%A0%94%E7%A9%B6</t>
@@ -1367,7 +1349,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>比較法學</t>
+    <t>比较法学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Feminist_legal_theory</t>
@@ -1421,7 +1403,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>法律哲學</t>
+    <t>法律哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adjudication</t>
@@ -1439,7 +1421,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>軍事法庭</t>
+    <t>军事法庭</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dispute_resolution</t>
@@ -1451,7 +1433,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>伊斯蘭教法學</t>
+    <t>伊斯兰教法学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E6%84%8F%E8%A7%81</t>
@@ -1475,7 +1457,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E7%B4%B3%E5%A3%AB</t>
   </si>
   <si>
-    <t>太平紳士</t>
+    <t>太平绅士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A8%E5%AE%98</t>
@@ -1493,25 +1475,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E8%A6%86%E6%A0%B8</t>
   </si>
   <si>
-    <t>司法覆核</t>
+    <t>司法复核</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E7%AE%A1%E8%BD%84%E6%AC%8A</t>
   </si>
   <si>
-    <t>司法管轄權</t>
+    <t>司法管辖权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%AA%E5%AF%A9%E5%9C%98</t>
   </si>
   <si>
-    <t>陪審團</t>
+    <t>陪审团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%B9%B3%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>公平正義</t>
+    <t>公平正义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Legal_profession</t>
@@ -1529,7 +1511,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%9F%E5%8B%99%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>訟務律師</t>
+    <t>讼务律师</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Counsel</t>
@@ -1541,25 +1523,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>律師</t>
+    <t>律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AA%A2%E5%AF%9F%E5%AE%98</t>
   </si>
   <si>
-    <t>檢察官</t>
+    <t>检察官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8B%E5%8B%99%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>事務律師</t>
+    <t>事务律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>法學家</t>
+    <t>法学家</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Paralegal</t>
@@ -1619,19 +1601,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>律師學院</t>
+    <t>律师学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB%E4%BA%8B%E5%8B%99%E6%89%80</t>
   </si>
   <si>
-    <t>律師事務所</t>
+    <t>律师事务所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>公民社會</t>
+    <t>公民社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BA%AD</t>
@@ -1655,19 +1637,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E9%81%94%E5%90%8F</t>
   </si>
   <si>
-    <t>執達吏</t>
+    <t>执达吏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>選舉委員會</t>
+    <t>选举委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>行政機關</t>
+    <t>行政机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%9C%BA%E5%85%B3</t>
@@ -1691,13 +1673,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>立法機關</t>
+    <t>立法机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>軍隊</t>
+    <t>军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%A6%E5%AF%9F</t>
@@ -1709,9 +1691,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>政黨</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Tribunal</t>
   </si>
   <si>
@@ -1721,7 +1700,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -4195,7 +4174,7 @@
         <v>145</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="G73" t="n">
         <v>3</v>
@@ -4221,10 +4200,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -4250,10 +4229,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -4279,10 +4258,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4308,10 +4287,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -4337,10 +4316,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4366,10 +4345,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -4395,10 +4374,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -4424,10 +4403,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4453,10 +4432,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -4482,10 +4461,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4511,10 +4490,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -4540,10 +4519,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4569,10 +4548,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>3</v>
@@ -4598,10 +4577,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4656,10 +4635,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4685,10 +4664,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4714,10 +4693,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>6</v>
@@ -4743,10 +4722,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>4</v>
@@ -4772,10 +4751,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -4801,10 +4780,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4830,10 +4809,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4859,10 +4838,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4888,10 +4867,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4917,10 +4896,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4946,10 +4925,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4975,10 +4954,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5004,10 +4983,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -5033,10 +5012,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>12</v>
@@ -5062,10 +5041,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5091,10 +5070,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5120,10 +5099,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5149,10 +5128,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5178,10 +5157,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5207,10 +5186,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5236,10 +5215,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5265,10 +5244,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5294,10 +5273,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>17</v>
@@ -5352,10 +5331,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5381,10 +5360,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -5410,10 +5389,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5439,10 +5418,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5468,10 +5447,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5497,10 +5476,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F118" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5526,10 +5505,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5555,10 +5534,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5584,10 +5563,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5613,10 +5592,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5642,10 +5621,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5671,10 +5650,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5700,10 +5679,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>3</v>
@@ -5729,10 +5708,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5787,10 +5766,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>168</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5816,10 +5795,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G129" t="n">
         <v>21</v>
@@ -5903,10 +5882,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G132" t="n">
         <v>10</v>
@@ -5932,10 +5911,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F133" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5961,10 +5940,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5990,10 +5969,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -6019,10 +5998,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="G136" t="n">
         <v>3</v>
@@ -6048,10 +6027,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6077,10 +6056,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6106,10 +6085,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6135,10 +6114,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6164,10 +6143,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6193,10 +6172,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6222,10 +6201,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6251,10 +6230,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F144" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6280,10 +6259,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6309,10 +6288,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6338,10 +6317,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6367,10 +6346,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -6396,10 +6375,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6425,10 +6404,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G150" t="n">
         <v>3</v>
@@ -6454,10 +6433,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6483,10 +6462,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6512,10 +6491,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6541,10 +6520,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F154" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6570,10 +6549,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F155" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6599,10 +6578,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F156" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -6628,10 +6607,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F157" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6657,10 +6636,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F158" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6686,10 +6665,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F159" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6715,10 +6694,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F160" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6744,10 +6723,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F161" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6773,10 +6752,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6802,10 +6781,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6831,10 +6810,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6860,10 +6839,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6889,10 +6868,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6918,10 +6897,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6947,10 +6926,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F168" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6976,10 +6955,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F169" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7005,10 +6984,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F170" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7034,10 +7013,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F171" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7063,10 +7042,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F172" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7092,10 +7071,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F173" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7121,10 +7100,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F174" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7150,10 +7129,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F175" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7179,10 +7158,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F176" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7208,10 +7187,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F177" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7237,10 +7216,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F178" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7266,10 +7245,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F179" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7295,10 +7274,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F180" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7324,10 +7303,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F181" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7353,10 +7332,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F182" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7382,10 +7361,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F183" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7411,10 +7390,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F184" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7440,10 +7419,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F185" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7469,10 +7448,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F186" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7498,10 +7477,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F187" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7527,10 +7506,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F188" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7556,10 +7535,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F189" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7585,10 +7564,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F190" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -7614,10 +7593,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F191" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7643,10 +7622,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F192" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -7672,10 +7651,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F193" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7701,10 +7680,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F194" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7730,10 +7709,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F195" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7759,10 +7738,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F196" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7788,10 +7767,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F197" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7817,10 +7796,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F198" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7846,10 +7825,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F199" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -7875,10 +7854,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F200" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7904,10 +7883,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F201" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7933,10 +7912,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F202" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7962,10 +7941,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F203" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7991,10 +7970,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F204" t="s">
-        <v>396</v>
+        <v>204</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8020,10 +7999,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F205" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8049,10 +8028,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F206" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8078,10 +8057,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F207" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8107,10 +8086,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F208" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G208" t="n">
         <v>6</v>
@@ -8136,10 +8115,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F209" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8165,10 +8144,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F210" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8194,10 +8173,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F211" t="s">
-        <v>410</v>
+        <v>128</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8223,10 +8202,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F212" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8252,10 +8231,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F213" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8281,10 +8260,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F214" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8310,10 +8289,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F215" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8339,10 +8318,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F216" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8368,10 +8347,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F217" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8397,10 +8376,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F218" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8426,10 +8405,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F219" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8455,10 +8434,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F220" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8484,10 +8463,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F221" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8513,10 +8492,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F222" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8542,10 +8521,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F223" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8571,10 +8550,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F224" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8600,10 +8579,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F225" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8629,10 +8608,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F226" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8658,10 +8637,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F227" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8687,10 +8666,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F228" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8716,10 +8695,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F229" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8745,10 +8724,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F230" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8774,10 +8753,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F231" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8803,10 +8782,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F232" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8832,10 +8811,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F233" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8861,10 +8840,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F234" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8890,10 +8869,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F235" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8919,10 +8898,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F236" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8948,10 +8927,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F237" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8977,10 +8956,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F238" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9006,10 +8985,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F239" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9035,10 +9014,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F240" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9064,10 +9043,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F241" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9093,10 +9072,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F242" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9122,10 +9101,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F243" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9151,10 +9130,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F244" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9180,10 +9159,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F245" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9209,10 +9188,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F246" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9238,10 +9217,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F247" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9267,10 +9246,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F248" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9296,10 +9275,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F249" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9325,10 +9304,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F250" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9354,10 +9333,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F251" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -9383,10 +9362,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F252" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9412,10 +9391,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F253" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9441,10 +9420,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F254" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9470,10 +9449,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F255" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9499,10 +9478,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F256" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9528,10 +9507,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F257" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9557,10 +9536,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="F258" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9586,10 +9565,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F259" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9615,10 +9594,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F260" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="G260" t="n">
         <v>7</v>
@@ -9644,10 +9623,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F261" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9673,10 +9652,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F262" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9702,10 +9681,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F263" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9731,10 +9710,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F264" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9760,10 +9739,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="F265" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9789,10 +9768,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F266" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9818,10 +9797,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F267" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9847,10 +9826,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F268" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9876,10 +9855,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F269" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9905,10 +9884,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F270" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9934,10 +9913,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F271" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G271" t="n">
         <v>3</v>
@@ -9963,10 +9942,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F272" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -9992,10 +9971,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F273" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10021,10 +10000,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F274" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10050,10 +10029,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F275" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10079,10 +10058,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F276" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -10108,10 +10087,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F277" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10137,10 +10116,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F278" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10166,10 +10145,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F279" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10195,10 +10174,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F280" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10224,10 +10203,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="F281" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10253,10 +10232,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F282" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10282,10 +10261,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F283" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10311,10 +10290,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F284" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10340,10 +10319,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="F285" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10369,10 +10348,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F286" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -10398,10 +10377,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F287" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10427,10 +10406,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="F288" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10456,10 +10435,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F289" t="s">
-        <v>564</v>
+        <v>102</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10485,10 +10464,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F290" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10514,10 +10493,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F291" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G291" t="n">
         <v>3</v>
@@ -10543,10 +10522,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F292" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10572,10 +10551,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F293" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G293" t="n">
         <v>7</v>
@@ -10601,10 +10580,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F294" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>

--- a/xlsx/立法_intext.xlsx
+++ b/xlsx/立法_intext.xlsx
@@ -29,7 +29,7 @@
     <t>政治</t>
   </si>
   <si>
-    <t>政策_政策_行政_立法</t>
+    <t>体育运动_体育运动_欧洲议会_立法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
